--- a/#ToDoList.xlsx
+++ b/#ToDoList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>When you pet Prince x times, Skiz will comment on that or something…</t>
   </si>
@@ -39,20 +39,59 @@
     <t>Inventory</t>
   </si>
   <si>
-    <t>Kinda already has…. +-</t>
-  </si>
-  <si>
     <t>Multiple endings</t>
   </si>
   <si>
     <t>Diferent Char. Stories</t>
+  </si>
+  <si>
+    <t>Fight/Flight</t>
+  </si>
+  <si>
+    <t>Kinda already has… +-</t>
+  </si>
+  <si>
+    <t>When meeting guards</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Part 2</t>
+  </si>
+  <si>
+    <t>Part 1</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Main Menu</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>Level Of Importance</t>
+  </si>
+  <si>
+    <t>Extras</t>
+  </si>
+  <si>
+    <t>Boi</t>
+  </si>
+  <si>
+    <t>Meh</t>
+  </si>
+  <si>
+    <t>*Inhales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,8 +99,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,8 +176,23 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -101,19 +200,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="Cálculo" xfId="3" builtinId="22"/>
+    <cellStyle name="Entrada" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Nota" xfId="5" builtinId="10"/>
+    <cellStyle name="Saída" xfId="2" builtinId="21"/>
+    <cellStyle name="Texto de Aviso" xfId="4" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -405,68 +583,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C9"/>
+  <dimension ref="B1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="100.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:5">
+      <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2" s="4"/>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="1"/>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="3"/>
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2"/>
+      <c r="C5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:3">
-      <c r="B2" s="1" t="s">
+      <c r="E11" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="1" t="s">
+      <c r="E12" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="1" t="s">
+      <c r="E13" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="3" t="s">
+      <c r="E14" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="2" t="s">
+      <c r="E15" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="3" t="s">
+      <c r="E16" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="4" t="s">
+      <c r="E18" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="2" t="s">
+      <c r="E19" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="C22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="D25" s="14"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B11:B22">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:B21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/#ToDoList.xlsx
+++ b/#ToDoList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>When you pet Prince x times, Skiz will comment on that or something…</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Multiple endings</t>
   </si>
   <si>
-    <t>Diferent Char. Stories</t>
-  </si>
-  <si>
     <t>Fight/Flight</t>
   </si>
   <si>
@@ -85,6 +82,30 @@
   </si>
   <si>
     <t>*Inhales</t>
+  </si>
+  <si>
+    <t>Nyan~</t>
+  </si>
+  <si>
+    <t>Actions Important</t>
+  </si>
+  <si>
+    <t>Diferent Char. Stories/can chose character when char. Scater</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Progress</t>
   </si>
 </sst>
 </file>
@@ -254,7 +275,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -284,6 +305,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Cálculo" xfId="3" builtinId="22"/>
@@ -583,102 +606,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E25"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="100.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="69.5703125" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="6" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" style="6" customWidth="1"/>
     <col min="5" max="5" width="18.140625" style="6" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
+      <c r="A1" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="B1" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5">
+        <v>17</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="B2" s="4"/>
       <c r="C2" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="B4" s="3"/>
       <c r="C4" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="B5" s="2"/>
       <c r="C5" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="16"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="B11" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="B12" s="13" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="B15" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -686,10 +736,10 @@
         <v>6</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -697,36 +747,36 @@
         <v>7</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="13.5" customHeight="1">
+      <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="C26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="D25" s="14"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="D29" s="14"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B11:B22">
+  <conditionalFormatting sqref="B11:B26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -738,7 +788,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B21">
+  <conditionalFormatting sqref="A10:B25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/#ToDoList.xlsx
+++ b/#ToDoList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>When you pet Prince x times, Skiz will comment on that or something…</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Meh</t>
   </si>
   <si>
-    <t>*Inhales</t>
-  </si>
-  <si>
     <t>Nyan~</t>
   </si>
   <si>
@@ -106,6 +103,45 @@
   </si>
   <si>
     <t>Progress</t>
+  </si>
+  <si>
+    <t>Before scavenging army base, have more stuff happen</t>
+  </si>
+  <si>
+    <t>Part 1/2</t>
+  </si>
+  <si>
+    <t>Global:</t>
+  </si>
+  <si>
+    <t>Action Options:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fight/Flight scout robot</t>
+  </si>
+  <si>
+    <t>On way to army base</t>
+  </si>
+  <si>
+    <t>*Inhales*</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Good way to gain the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Variable: Courage</t>
+    </r>
+  </si>
+  <si>
+    <t>1st Person…?</t>
   </si>
 </sst>
 </file>
@@ -213,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -266,6 +302,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -275,7 +329,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -307,6 +361,22 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Cálculo" xfId="3" builtinId="22"/>
@@ -606,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -620,29 +690,30 @@
     <col min="4" max="4" width="27.28515625" style="6" customWidth="1"/>
     <col min="5" max="5" width="18.140625" style="6" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" s="4"/>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -671,18 +742,23 @@
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="16"/>
     </row>
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>0</v>
@@ -731,7 +807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:6">
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
@@ -742,7 +818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:6">
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
@@ -750,15 +826,39 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:6">
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="13.5" customHeight="1">
+    <row r="20" spans="2:6">
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="F22" s="22"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="13.5" customHeight="1">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -772,10 +872,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
+    <row r="27" spans="2:6">
+      <c r="B27" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="18"/>
+      <c r="C28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" spans="2:6">
       <c r="D29" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="E27:E28"/>
+  </mergeCells>
   <conditionalFormatting sqref="B11:B26">
     <cfRule type="colorScale" priority="2">
       <colorScale>

--- a/#ToDoList.xlsx
+++ b/#ToDoList.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Folha2" sheetId="2" r:id="rId2"/>
     <sheet name="Folha3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Folha1!$A$1:$A$29</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>When you pet Prince x times, Skiz will comment on that or something…</t>
   </si>
@@ -142,6 +145,9 @@
   </si>
   <si>
     <t>1st Person…?</t>
+  </si>
+  <si>
+    <t>Variable: Courage</t>
   </si>
 </sst>
 </file>
@@ -361,6 +367,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -373,10 +383,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Cálculo" xfId="3" builtinId="22"/>
@@ -676,229 +682,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="69.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="10" width="9.140625" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="6"/>
+    <col min="3" max="3" width="69.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="25" style="6" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7">
+      <c r="B1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="B2" s="4"/>
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="1:7">
+      <c r="C2" s="4"/>
+      <c r="D2" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="B3" s="1"/>
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="1:7">
+      <c r="C3" s="1"/>
+      <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="B4" s="3"/>
-      <c r="C4" s="6" t="s">
+    <row r="4" spans="1:7">
+      <c r="C4" s="3"/>
+      <c r="D4" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="B5" s="2"/>
-      <c r="C5" s="6" t="s">
+    <row r="5" spans="1:7">
+      <c r="C5" s="2"/>
+      <c r="D5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
+    <row r="6" spans="1:7">
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="15" t="s">
+    <row r="7" spans="1:7">
+      <c r="C7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="16"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10" t="s">
+    <row r="8" spans="1:7">
+      <c r="C8" s="16"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="C10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="6">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="13" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="6">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="6">
+        <v>5</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="6">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="6">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="G17" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="1:8">
+      <c r="A18" s="6">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="G18" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" s="6">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" s="6">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" s="6">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="G21" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
-      <c r="F22" s="22"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" t="s">
+    <row r="22" spans="1:8">
+      <c r="H22" s="18"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="C25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B26" s="15" t="s">
+    <row r="26" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A26" s="6">
+        <v>12</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="G26" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="17" t="s">
+    <row r="27" spans="1:8">
+      <c r="A27" s="6">
+        <v>13</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="G27" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="18"/>
-      <c r="C28" s="6" t="s">
+    <row r="28" spans="1:8">
+      <c r="A28" s="6">
+        <v>14</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="20"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="D29" s="14"/>
+      <c r="E28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="F29" s="14"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A29"/>
   <mergeCells count="2">
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="G27:G28"/>
   </mergeCells>
-  <conditionalFormatting sqref="B11:B26">
+  <conditionalFormatting sqref="C11:C26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -910,7 +963,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B25">
+  <conditionalFormatting sqref="B10:C25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
